--- a/EXERCICE1.xlsx
+++ b/EXERCICE1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISTQB\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93D688-B56E-42E9-8611-23B666CB1401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD09EC2-3BC5-4584-B332-A483DC270856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27555" yWindow="1980" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>DI</t>
   </si>
   <si>
-    <t>ajout</t>
+    <t>ajout EMNA</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
